--- a/companies_news.xlsx
+++ b/companies_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,6 +2143,64 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Farrel Pomini</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Farrel Pomini Pioneers a Greener Tomorrow Through Innovation</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Farrel Pomini announced new advancements and sustainability initiatives in biopolymer processing, reinforcing its leadership in continuous mixing technology.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://markets.financialcontent.com/wral/article/tokenring-2025-11-21-farrel-pomini-pioneers-a-greener-tomorrow-through-relentless-innovation-in-manufacturing</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-W47</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-11-21-farrel-pomini-pioneers-a-greener-tomorrow-through-innovation.md</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/companies_news.xlsx
+++ b/companies_news.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,57 +511,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CJ Biomaterials</t>
+          <t>Kaneka Corporation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CJ Biomaterials</t>
+          <t>Kaneka Corporation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CJ Biomaterials partners with BIQ Materials for PHACT™ PHA turf infill</t>
+          <t>Kaneka Corporation Expands PHBH Biopolymer Production with ¥12.4 Billion Investment</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CJ Biomaterials signed a partnership with BIQ Materials to produce artificial turf infill made with PHACT™ PHA, a certified biodegradable biopolymer, targeting the European market and supporting EU microplastic ban compliance.</t>
+          <t>Kaneka Corporation has committed ¥12.4 billion in October 2025 to boost its PHBH biopolymer producti</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Partnerships</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://cjbiomaterials.com/history/</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://www.manilatimes.net/2025/11/05/tmt-newswire/globenewswire/cj-biomaterials-signs-partnership-with-biq-materials-to-produce-artificial-turf-infill-made-with-phact-pha-a-certified-biodegradable-biopolymer-for-the-european-market/2216843</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-W45</t>
-        </is>
-      </c>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Gemini search</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
+          <t>openPR.com</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -569,7 +555,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-11-05-cj-biomaterials-partners-with-biq-materials-for-phact-pha-turf-infill.md</t>
+          <t>2022-02-07-kaneka-corporation-expands-phbh-biopolymer-production-with-124-billion-investment.md</t>
         </is>
       </c>
     </row>
@@ -579,63 +565,53 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balrampur Chini Mills Limited</t>
+          <t>NatureWorks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Balrampur Chini Mills Limited</t>
+          <t>NatureWorks</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>India's first large-scale PLA bioplastics plant by 2026</t>
+          <t>NatureWorks Expands Thailand Manufacturing Footprint and Prioritizes Closed-Loop Sustainability</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Balrampur Chini Mills will build India's first large-scale polylactic acid bioplastics plant by October 2026. Operating under Bioyug brand, facility will produce 80,000 tonnes annually from sugarcane.</t>
+          <t>NatureWorks is advancing construction on its new Ingeo™ PLA biopolymer manufacturing facility in Tha</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Plant Announcement</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.balrampurbioyug.com</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://fnbnews.com/Top-News/balrampur-chini-mills-to-set-up-indias-first-pla-bioplastics-plant-by-2026-83295</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+          <t>Plant Announcements</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Gemini search</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>100</v>
-      </c>
+          <t>NatureWorks</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2023-10-18-natureworks-expands-thailand-manufacturing-footprint-and-prioritizes-closed-loop-sustainability.md</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -643,53 +619,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AgroRenew</t>
+          <t>BIOWEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AgroRenew</t>
+          <t>BIOWEG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AgroRenew breaks ground on bioplastics plant in Ohio</t>
+          <t>BIOWEG secures €16 million Series A to scale biodegradable alternatives to microplastics - Axeleo Capital</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AgroRenew LLC started construction in Northeast Ohio on facility converting food waste from pumpkins, watermelons, and cantaloupes into bioplastics, addressing agricultural waste challenges.</t>
+          <t>BIOWEG has successfully closed a €16 million Series A funding round</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Plant Announcement</t>
+          <t>Investment &amp; Funding</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://www.plasticsnews.com/news/agrorenew-breaks-ground-bioplastics-plant-converts-ag-waste</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Gemini search</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>50</v>
-      </c>
+          <t>Axeleo Capital</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -697,7 +663,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-10-29-agrorenew-breaks-ground-on-bioplastics-plant-in-ohio.md</t>
+          <t>2023-11-22-bioweg-secures-16-million-series-a-to-scale-biodegradable-alternatives-to-microplastics-axeleo-capital.md</t>
         </is>
       </c>
     </row>
@@ -717,47 +683,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Braskem-Sojitz plan $400M bio-based feedstocks plant in Indiana</t>
+          <t>From Air to Plastics: Norsk e-Fuel and Braskem Partner to Turn Captured Carbon into Long-Lasting Products</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Braskem SA and Sojitz Corp planning $400 million joint venture facility in Lafayette, Indiana to produce bio-based plastic feedstocks, expanding North American sustainable materials capacity.</t>
+          <t>Braskem and Norsk e-Fuel have formed a strategic partnership to explore integrating e-Naphtha</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Plant Announcement</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.braskem.com/europe/news-detail/with-braskems-im-greensuptmsup-bio-based-polyethylene-balsam-hill-made-the-worlds-first-plant-based-plastic-christmas-trees</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://www.plasticsnews.com/news/braskem-sojitz-plan-400m-bio-based-feedstocks-plant-indiana</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Gemini search</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>75</v>
-      </c>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -765,7 +717,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-10-28-braskem-sojitz-plan-400m-bio-based-feedstocks-plant-in-indiana.md</t>
+          <t>2023-12-06-from-air-to-plastics-norsk-e-fuel-and-braskem-partner-to-turn-captured-carbon-into-long-lasting-products.md</t>
         </is>
       </c>
     </row>
@@ -775,57 +727,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blue Circle Olefins</t>
+          <t>NatureWorks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Blue Circle Olefins</t>
+          <t>NatureWorks</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blue Circle Olefins secures funding for ProjectNL in Rotterdam</t>
+          <t>CJ Biomaterials and NatureWorks Partner on Novel PHA-based Flexible Packaging Compounds</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blue Circle Olefins secured funding to advance ProjectNL, commercial Methanol to Olefins production facility in Rotterdam, Netherlands. Project aims to produce sustainable olefins from renewable methanol.</t>
+          <t>CJ Biomaterials and NatureWorks have collaborated to introduce two new PHA-based compounds</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Investment &amp; Funding</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/bluecircleolefins_press-release-bco-por-activity-7391051545511104512-obxt?utm_source=share&amp;#038;utm_medium=member_desktop&amp;#038;rcm=acoaaabcfoobsq5gta8d2tfkh7j_e-hxdywex44</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://www.bioplasticsmagazine.com/en/news/meldungen/2024-10-28-Blue-Circle-Olefins-secures-funding-for-next-phase-of-ProjectNL.php</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Gemini search</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>100</v>
-      </c>
+          <t>SpecialChem</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -833,7 +771,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-10-28-blue-circle-olefins-secures-funding-for-projectnl-in-rotterdam.md</t>
+          <t>2024-04-16-cj-biomaterials-and-natureworks-partner-on-novel-pha-based-flexible-packaging-compounds.md</t>
         </is>
       </c>
     </row>
@@ -843,53 +781,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bakelite</t>
+          <t>Blue Ocean Closures</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bakelite</t>
+          <t>Blue Ocean Closures</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bakelite acquires sustainable adhesives maker Sestec</t>
+          <t>Blue Ocean fiber screw caps reach cost parity with plastic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thermoset resin producer Bakelite acquired Sestec, Polish company specializing in sustainable protein-based adhesives for wood and composite products, expanding its bio-based materials portfolio.</t>
+          <t>Blue Ocean Closures announced its fiber screw caps now cost-competitive with fossil plastic caps whi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>M&amp;A</t>
+          <t>Product Launch</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://www.plasticsnews.com/news/bakelite-acquires-sustainable-adhesives-maker-sestec</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -897,7 +825,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-10-31-bakelite-acquires-sustainable-adhesives-maker-sestec.md</t>
+          <t>2024-10-25-blue-ocean-fiber-screw-caps-reach-cost-parity-with-plastic.md</t>
         </is>
       </c>
     </row>
@@ -907,57 +835,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pro-Pickle</t>
+          <t>Nexam Chemical</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pro-Pickle</t>
+          <t>Nexam Chemical</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pro-Pickle launches first compostable pickleball</t>
+          <t>Nexam Chemical-Verdofoam collaborate on lightweight bioplastics</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pro-Pickle introduced Compost-a-Ball, first compostable pickleball ball designed to break down in 100 days, addressing environmental concerns in rapidly growing pickleball industry.</t>
+          <t>Nexam Chemical and Verdofoam collaborating to advance lightweight materials in biobased plastics</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Product Launch</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://pro-pickle.com</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://www.plasticsnews.com/news/pro-pickle-launches-compostable-pickleball</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>100</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -965,7 +879,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-11-01-pro-pickle-launches-first-compostable-pickleball.md</t>
+          <t>2024-10-25-nexam-chemical-verdofoam-collaborate-on-lightweight-bioplastics.md</t>
         </is>
       </c>
     </row>
@@ -975,57 +889,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Radici Group</t>
+          <t>BASF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Radici Group</t>
+          <t>BASF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Radici Group launches Bionside bio-based nylons at Fakuma</t>
+          <t>BASF-Siemens show circuit breaker with biomass-balanced plastics</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Radici Group launched Bionside, new line of bio-based nylon resins at Fakuma 2024 trade show, expanding sustainable engineering plastics portfolio for automotive and industrial applications.</t>
+          <t xml:space="preserve">BASF and Siemens collaborated to present circuit breaker with components made from biomass-balanced </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Product Launch</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://www.radicigroup.com/en/corporate/radicigroup/story</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://www.plasticsnews.com/news/fakuma-2024-radici-group-launches-bionside-bio-based-nylons</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2024-W43</t>
-        </is>
-      </c>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>75</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1033,7 +933,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-10-27-radici-group-launches-bionside-bio-based-nylons-at-fakuma.md</t>
+          <t>2024-10-26-basf-siemens-show-circuit-breaker-with-biomass-balanced-plastics.md</t>
         </is>
       </c>
     </row>
@@ -1043,27 +943,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Blue Ocean Closures</t>
+          <t>Radici Group</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Blue Ocean Closures</t>
+          <t>Radici Group</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Blue Ocean fiber screw caps reach cost parity with plastic</t>
+          <t>Radici Group launches Bionside bio-based nylons at Fakuma</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blue Ocean Closures announced its fiber screw caps now cost-competitive with fossil plastic caps while having lower energy consumption in production, marking sustainability milestone in packaging.</t>
+          <t>Radici Group launched Bionside</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1071,29 +971,15 @@
           <t>Product Launch</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://www.blueoceanclosures.com/news/</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://www.bioplasticsmagazine.com/en/news/meldungen/2024-10-25-Blue-Ocean-Closures-claims-cost-parity-for-its-fibre-screw-caps.php</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2024-W43</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>100</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1101,7 +987,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-10-25-blue-ocean-fiber-screw-caps-reach-cost-parity-with-plastic.md</t>
+          <t>2024-10-27-radici-group-launches-bionside-bio-based-nylons-at-fakuma.md</t>
         </is>
       </c>
     </row>
@@ -1111,57 +997,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Blue Circle Olefins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Blue Circle Olefins</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BASF-Siemens show circuit breaker with biomass-balanced plastics</t>
+          <t>Blue Circle Olefins secures funding for ProjectNL in Rotterdam</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BASF and Siemens collaborated to present circuit breaker with components made from biomass-balanced plastics at Fakuma 2024, demonstrating industrial applications of sustainable materials.</t>
+          <t>Blue Circle Olefins secured funding to advance ProjectNL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Partnerships</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://www.basf.com</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://www.plasticsnews.com/news/fakuma-2024-basf-siemens-show-circuit-breaker-biomass-balanced-plastics</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2024-W43</t>
-        </is>
-      </c>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>75</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1169,7 +1041,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-10-26-basf-siemens-show-circuit-breaker-with-biomass-balanced-plastics.md</t>
+          <t>2024-10-28-blue-circle-olefins-secures-funding-for-projectnl-in-rotterdam.md</t>
         </is>
       </c>
     </row>
@@ -1179,57 +1051,43 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nexam Chemical</t>
+          <t>Braskem</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nexam Chemical</t>
+          <t>Braskem</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nexam Chemical-Verdofoam collaborate on lightweight bioplastics</t>
+          <t>Braskem-Sojitz plan $400M bio-based feedstocks plant in Indiana</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nexam Chemical and Verdofoam collaborating to advance lightweight materials in biobased plastics, combining crosslinking technology with foam production for improved sustainability and performance.</t>
+          <t>Braskem SA and Sojitz Corp planning $400 million joint venture facility in Lafayette</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Partnerships</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://www.nexamchemical.com/wordpress/wp-content/themes/nexam/assets/img/favicon-0428695900.png</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://www.bioplasticsmagazine.com/en/news/meldungen/2024-10-25-Nexam-Chemical-and-Verdofoam-collaborate-on-lightweighting-in-biobased-plastics.php</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2024-W43</t>
-        </is>
-      </c>
+          <t>Plant Announcement</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>75</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1237,7 +1095,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-10-25-nexam-chemical-verdofoam-collaborate-on-lightweight-bioplastics.md</t>
+          <t>2024-10-28-braskem-sojitz-plan-400m-bio-based-feedstocks-plant-in-indiana.md</t>
         </is>
       </c>
     </row>
@@ -1247,57 +1105,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Uluu</t>
+          <t>AgroRenew</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Uluu</t>
+          <t>AgroRenew</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uluu raises $10.5M to scale seaweed bioplastics</t>
+          <t>AgroRenew breaks ground on bioplastics plant in Ohio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Australian firm Uluu secured A$16 million ($10.5 million) in funding to develop demonstration facility and scale technology for producing PHA bioplastics from seaweed as petroleum alternative.</t>
+          <t>AgroRenew LLC started construction in Northeast Ohio on facility converting food waste from pumpkins</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Investment &amp; Funding</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://www.theaustralian.com.au/business/companies/ocean-of-opportunity-for-plasticsfromseaweed-startup-uluu/news-story/7c222e9726ed46296f54b89bc4b4fb8e</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://www.greenqueen.com.hk/uluu-raises-10-5m-to-scale-seaweed-bioplastics-as-a-petroleum-plastic-alternative/</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2024-W44</t>
-        </is>
-      </c>
+          <t>Plant Announcement</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>Gemini search</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>100</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1305,7 +1149,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-11-02-uluu-raises-105m-to-scale-seaweed-bioplastics.md</t>
+          <t>2024-10-29-agrorenew-breaks-ground-on-bioplastics-plant-in-ohio.md</t>
         </is>
       </c>
     </row>
@@ -1315,57 +1159,43 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Teknor Apex</t>
+          <t>Balrampur Chini Mills Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Teknor Apex</t>
+          <t>Balrampur Chini Mills Limited</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Teknor Apex Acquires Danimer Scientific</t>
+          <t>India's first large-scale PLA bioplastics plant by 2026</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Teknor Apex completed the acquisition of Danimer Scientific, expanding its footprint in the bioplastics sector through this strategic merger and acquisition deal.</t>
+          <t>Balrampur Chini Mills will build India's first large-scale polylactic acid bioplastics plant by Octo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>M&amp;A</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://www.teknorapex.com/en-us/news/teknor-apex-announces-new-sarlink-tpvs-with-up-to-40-recycled-content</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://worldbiomarketinsights.com/teknor-apex-acquires-bioplastics-firm-danimer-scientific/</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2025-W45</t>
-        </is>
-      </c>
+          <t>Plant Announcement</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>100</v>
-      </c>
+          <t>Gemini search</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1373,7 +1203,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-11-04-teknor-apex-acquires-danimer-scientific.md</t>
+          <t>2024-10-30-indias-first-large-scale-pla-bioplastics-plant-by-2026.md</t>
         </is>
       </c>
     </row>
@@ -1383,27 +1213,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Angstrom Group</t>
+          <t>Bakelite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Angstrom Group</t>
+          <t>Bakelite</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Angstrom Group Acquires Mantle</t>
+          <t>Bakelite acquires sustainable adhesives maker Sestec</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Angstrom Group expanded its biopolymer capabilities by acquiring Mantle, strengthening its position in the bioplastics and biopolymers market through this acquisition.</t>
+          <t>Thermoset resin producer Bakelite acquired Sestec</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1412,24 +1242,14 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://www.plasticstoday.com/materials/biopolymers</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2025-W45</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>25</v>
-      </c>
+          <t>Gemini search</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1437,7 +1257,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-11-07-angstrom-group-acquires-mantle.md</t>
+          <t>2024-10-31-bakelite-acquires-sustainable-adhesives-maker-sestec.md</t>
         </is>
       </c>
     </row>
@@ -1447,53 +1267,43 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NaturePlast</t>
+          <t>Uluu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NaturePlast</t>
+          <t>Uluu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NaturePlast Develops AI-Designed Biodegradable Fishing Nets</t>
+          <t>Uluu raises $10.5M to scale seaweed bioplastics</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NaturePlast announced new-generation bioplastic formulations for technical filaments in fishing and construction nets, leveraging artificial intelligence to optimize performance characteristics for demanding applications.</t>
+          <t>Australian firm Uluu secured A$16 million ($10.5 million) in funding to develop demonstration facili</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Product Launch</t>
+          <t>Investment &amp; Funding</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://roboticsandautomationnews.com/2025/11/12/technology-company-natureplast-invents-biodegradable-plastic-fishing-nets/96528/</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>25</v>
-      </c>
+          <t>Gemini search</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1501,7 +1311,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-11-12-natureplast-develops-ai-designed-biodegradable-fishing-nets.md</t>
+          <t>2024-11-02-uluu-raises-105m-to-scale-seaweed-bioplastics.md</t>
         </is>
       </c>
     </row>
@@ -1511,53 +1321,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Novamont</t>
+          <t>BioBTX</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Novamont</t>
+          <t>BioBTX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Novamont Achieves EU Fertilizer Regulation Certification</t>
+          <t>BioBTX secures €80M funding to build a pioneering facility for biobased aromatics</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Novamont obtained certificate of conformity with EU Fertilizer Regulation 2019/1009 for its Mater-Bi bioplastic, enabling new applications in the agricultural sector and expanding market opportunities.</t>
+          <t>BioBTX has successfully secured over €80 million in funding to construct the world's first commercia</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Certifications</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://www.novamont.com/eng/press-release</t>
-        </is>
-      </c>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2025-W45</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>50</v>
-      </c>
+          <t>BioBTX</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1565,7 +1365,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-11-06-novamont-achieves-eu-fertilizer-regulation-certification.md</t>
+          <t>2024-12-11-biobtx-secures-80m-funding-to-build-a-pioneering-facility-for-biobased-aromatics.md</t>
         </is>
       </c>
     </row>
@@ -1575,57 +1375,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TripleW</t>
+          <t>Greenitio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TripleW</t>
+          <t>Greenitio</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TripleW Launches World's First Food Waste-Based PLA</t>
+          <t>Greenitio raises US$1.5M in Seed round to scale functional biopolymer platform</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TripleW, supported by Sulzer Chemtech, launched the world's first polylactic acid bioplastic made from food waste, marking significant innovation in sustainable bioplastics production from circular economy feedstocks.</t>
+          <t>Greenitio</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Product Launch</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://www.triplew.co/press/triplew-launches-worlds-first-food-waste-based-pla-bioplastic-with-support-of-sulzer-chemtech</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://www.bioplasticsmagazine.com/en/news/</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2025-W45</t>
-        </is>
-      </c>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>100</v>
-      </c>
+          <t>SGInnovate</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1633,7 +1419,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-11-07-triplew-launches-worlds-first-food-waste-based-pla</t>
+          <t>2025-09-05-greenitio-raises-us15m-in-seed-round-to-scale-functional-biopolymer-platform.md</t>
         </is>
       </c>
     </row>
@@ -1643,53 +1429,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CJ Biomaterials</t>
+          <t>Braskem</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CJ Biomaterials</t>
+          <t>Braskem</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CJ Biomaterials Wins 2025 Innovation in Bioplastics Award</t>
+          <t>Braskem Unveils I'm green Bio-based HDPE for Non-wovens and MDO Films</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CJ Biomaterials was recognized with the 2025 Innovation in Bioplastics Award for its advancements in biopolymer technology and sustainable materials, highlighting its leadership in the bioplastics industry.</t>
+          <t>Braskem has launched a new I'm green bio-based high-density polyethylene (HDPE) derived from sugarca</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Certifications</t>
+          <t>Product Launch</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://bioplasticsnews.com/2025/11/14/the-plastics-industry-association-names-cj-biomaterials-as-its-2025-innovation-in-bioplastics-award-winner/</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>75</v>
-      </c>
+          <t>DataM Intelligence (Market Report Summary)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1697,7 +1473,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-11-14-cj-biomaterials-wins-2025-innovation-in-bioplastics-award.md</t>
+          <t>2025-10-09-braskem-unveils-im-green-bio-based-hdpe-for-non-wovens-and-mdo-films.md</t>
         </is>
       </c>
     </row>
@@ -1707,27 +1483,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teknor Apex</t>
+          <t>Agilyx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Teknor Apex</t>
+          <t>Agilyx</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Teknor Apex Acquires Danimer Scientific</t>
+          <t>Agilyx investment transaction in GreenDot completed</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Teknor Apex completed the acquisition of Danimer Scientific, consolidating its position in the biodegradable biopolymer market and strengthening its production scalability and competitive dynamics.</t>
+          <t>Agilyx has completed the acquisition of a 44% stake in GreenDot Global</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1736,24 +1512,14 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://www.einpresswire.com/article/867894247/bioplastics-market-size-expected-to-hit-usd-22-23-billion-by-2032-key-trends-demand-share-analysis-forecast-report</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>100</v>
-      </c>
+          <t>Agilyx</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1761,7 +1527,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-11-10-teknor-apex-acquires-danimer-scientific.md</t>
+          <t>2025-10-16-agilyx-investment-transaction-in-greendot-completed.md</t>
         </is>
       </c>
     </row>
@@ -1771,27 +1537,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SABIC</t>
+          <t>Lenzing Group</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SABIC</t>
+          <t>Lenzing Group</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SABIC Launches Renewable-Grade ULTEM Resin</t>
+          <t>Lenzing and OceanSafe partner to launch next-gen performance textiles featuring TENCEL™ Lyocell - A100 and naNea</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SABIC introduced the first certified renewable-grade ULTEM resin, a bio-based engineering plastic with high heat resistance and mechanical strength for electronics and aerospace applications.</t>
+          <t>Lenzing Group and OceanSafe have collaborated to introduce a next-generation yarn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1800,24 +1566,14 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://www.einpresswire.com/article/867894247/bioplastics-market-size-expected-to-hit-usd-22-23-billion-by-2032-key-trends-demand-share-analysis-forecast-report</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>50</v>
-      </c>
+          <t>Lenzing Newsroom</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1825,7 +1581,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-11-10-sabic-launches-renewable-grade-ultem-resin.md</t>
+          <t>2025-10-28-lenzing-and-oceansafe-partner-to-launch-next-gen-performance-textiles-featuring-tencel-lyocell-a100-and-nanea.md</t>
         </is>
       </c>
     </row>
@@ -1835,27 +1591,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Blue Ocean Closures (BOC)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Blue Ocean Closures</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BASF Expands ecovio Biodegradable Mulch Film Portfolio</t>
+          <t>Fibre Screw Caps on Track to Be Cost-Competitive with Fossil Plastics</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BASF enhanced its ecovio biodegradable mulch film portfolio, targeting diverse climate zones in Asia and Latin America, supporting sustainable agriculture and high-growth markets.</t>
+          <t>Blue Ocean Closures (BOC) has announced a significant breakthrough</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1864,24 +1620,14 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://www.einpresswire.com/article/867894247/bioplastics-market-size-expected-to-hit-usd-22-23-billion-by-2032-key-trends-demand-share-analysis-forecast-report</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>50</v>
-      </c>
+          <t>bioplastics MAGAZINE</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1889,7 +1635,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-11-10-basf-expands-ecovio-biodegradable-mulch-film-portfolio.md</t>
+          <t>2025-11-05-fibre-screw-caps-on-track-to-be-cost-competitive-with-fossil-plastics.md</t>
         </is>
       </c>
     </row>
@@ -1899,27 +1645,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Corbion</t>
+          <t>CJ Biomaterials</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Corbion</t>
+          <t>CJ Biomaterials</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Corbion Partners with Nestlé on PHA-Based Packaging</t>
+          <t>CJ Biomaterials partners with BIQ Materials for PHACT™ PHA turf infill</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Corbion partnered with Nestlé to co-develop PHA-based barrier materials for shelf-stable, compostable food packaging, advancing circular packaging systems and sustainability commitments.</t>
+          <t xml:space="preserve">CJ Biomaterials signed a partnership with BIQ Materials to produce artificial turf infill made with </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1928,30 +1674,24 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://www.einpresswire.com/article/867894247/bioplastics-market-size-expected-to-hit-usd-22-23-billion-by-2032-key-trends-demand-share-analysis-forecast-report</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Perplexity Rev2</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>25</v>
-      </c>
+          <t>Gemini search</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-11-05-cj-biomaterials-partners-with-biq-materials-for-phact-pha-turf-infill.md</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1959,53 +1699,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Braskem</t>
+          <t>Novamont</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Braskem</t>
+          <t>Novamont</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Braskem Advocates Biopolymer Policy at COP30</t>
+          <t>Novamont Achieves EU Fertilizer Regulation Certification</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Braskem’s Sustainable Development Director called for stronger public policies to support biopolymer demand and R&amp;D at COP30, emphasizing the company’s leadership in renewable polyethylene.</t>
+          <t>Novamont obtained certificate of conformity with EU Fertilizer Regulation 2019/1009 for its Mater-Bi</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Partnerships</t>
+          <t>Certifications</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://www.packaginginsights.com/news/braskem-bioeconomy-policy-cop30.html</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>Perplexity Rev2</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>75</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2013,7 +1743,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-11-13-braskem-advocates-biopolymer-policy-at-cop30.md</t>
+          <t>2025-11-06-novamont-achieves-eu-fertilizer-regulation-certification.md</t>
         </is>
       </c>
     </row>
@@ -2023,53 +1753,43 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Braskem</t>
+          <t>Angstrom Group</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Braskem</t>
+          <t>Angstrom Group</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Braskem Expands Renewable Innovation Center</t>
+          <t>Angstrom Group Acquires Mantle</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Braskem continues expansion of its $20 million Renewable Innovation Center in Massachusetts, targeting 1 million tons of annual bioproduct capacity by 2030 and advancing biopolymer R&amp;D.</t>
+          <t>Angstrom Group expanded its biopolymer capabilities by acquiring Mantle</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Plant Announcement</t>
+          <t>M&amp;A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://www.packagingdive.com/news/braskem-renewable-innovation-center-massachusetts-bioplastic-sugar/750738/</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2025-W46</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>Perplexity Rev2</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>75</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2077,7 +1797,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-11-10-braskem-expands-renewable-innovation-center.md</t>
+          <t>2025-11-07-angstrom-group-acquires-mantle.md</t>
         </is>
       </c>
     </row>
@@ -2087,45 +1807,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Renaissance BioScience and Biome Bioplastics</t>
+          <t>TripleW</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Renaissance BioScience</t>
+          <t>TripleW</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Renaissance BioScience Partners with Biome Bioplastics for R&amp;D</t>
+          <t>TripleW Launches World's First Food Waste-Based PLA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Renaissance BioScience and Biome Bioplastics launched a two-year, $1.06 million R&amp;D initiative to develop renewable plastic alternatives for packaging and personal care.</t>
+          <t>TripleW</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Partnerships</t>
+          <t>Product Launch</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://www.plasticstoday.com/packaging/renaissance-bioscience-partners-with-biome-bioplastics-to-develop-renewable-plastic-alternatives</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2025-W47</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>Perplexity Rev2</t>
@@ -2139,7 +1851,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-11-18-renaissance-bioscience-partners-with-biome-bioplastics-for-rd.md</t>
+          <t>2025-11-07-triplew-launches-worlds-first-food-waste-based-pla.md</t>
         </is>
       </c>
     </row>
@@ -2149,23 +1861,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Farrel Pomini</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>BASF</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BASF</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Farrel Pomini Pioneers a Greener Tomorrow Through Innovation</t>
+          <t>BASF Expands ecovio Biodegradable Mulch Film Portfolio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Farrel Pomini announced new advancements and sustainability initiatives in biopolymer processing, reinforcing its leadership in continuous mixing technology.</t>
+          <t>BASF enhanced its ecovio biodegradable mulch film portfolio</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2174,16 +1890,8 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://markets.financialcontent.com/wral/article/tokenring-2025-11-21-farrel-pomini-pioneers-a-greener-tomorrow-through-relentless-innovation-in-manufacturing</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2025-W47</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>Perplexity Rev2</t>
@@ -2197,7 +1905,2509 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-11-21-farrel-pomini-pioneers-a-greener-tomorrow-through-innovation.md</t>
+          <t>2025-11-10-basf-expands-ecovio-biodegradable-mulch-film-portfolio.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Braskem Expands Renewable Innovation Center</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Braskem continues expansion of its $20 million Renewable Innovation Center in Massachusetts</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Plant Announcement</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-11-10-braskem-expands-renewable-innovation-center.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Corbion</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Corbion</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Corbion Partners with Nestlé on PHA-Based Packaging</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Corbion partnered with Nestlé to co-develop PHA-based barrier materials for shelf-stable</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-11-10-corbion-partners-with-nestlé-on-pha-based-packaging.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SABIC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SABIC</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SABIC Launches Renewable-Grade ULTEM Resin</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SABIC introduced the first certified renewable-grade ULTEM resin</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-11-10-sabic-launches-renewable-grade-ultem-resin.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Teknor Apex</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Teknor Apex</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Teknor Apex Acquires Danimer Scientific</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Teknor Apex completed the acquisition of Danimer Scientific</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>M&amp;A</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-11-10-teknor-apex-acquires-danimer-scientific.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Avantium</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Avantium</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Avantium and Logoplaste Sign Capacity Reservation Agreement for ReLeaf® to Accelerate High-Performance Packaging Innovation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avantium and Logoplaste have solidified their partnership with a capacity reservation agreement for </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Avantium Newsroom</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-11-11-avantium-and-logoplaste-sign-capacity-reservation-agreement-for-releaf-to-accelerate-high-performance-packaging-innovation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Expanded Capacity for Recyclable Bio-based PE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Braskem America has announced expanded production capacity for its 'I'm green' bio-based polyethylen</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Plant Announcement</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Packaging World</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-11-12-expanded-capacity-for-recyclable-bio-based-pe.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P2 Science</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P2 Science</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P2 Science and Algenesis Partner to Develop Algae-Derived Chemicals and 100% Biobased</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>P2 Science and Algenesis Corporation have formed a strategic partnership to develop and commercializ</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>P2 Science Inc.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-11-12-p2-science-and-algenesis-partner-to-develop-algae-derived-chemicals-and-100-biobased.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NaturePlast</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NaturePlast</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NaturePlast Develops AI-Designed Biodegradable Fishing Nets</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NaturePlast announced new-generation bioplastic formulations for technical filaments in fishing and </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2025-11-12-natureplast-develops-ai-designed-biodegradable-fishing-nets.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FORVIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FORVIA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FORVIA provides advanced and sustainable interior solutions to the all-new Renault Clio 6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>FORVIA is supplying the instrument panel and center console for the all-new Renault Clio 6</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>FORVIA Technology Press Release</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2025-11-13-forvia-provides-advanced-and-sustainable-interior-solutions-to-the-all-new-renault-clio-6.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Braskem</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Braskem Advocates Biopolymer Policy at COP30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Braskem’s Sustainable Development Director called for stronger public policies to support biopolymer</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2025-11-13-braskem-advocates-biopolymer-policy-at-cop30.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TIPA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TIPA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TIPA acquires Sealpap to expand recyclable and compostable packaging portfolio</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIPA Compostable Packaging has acquired Sealpap</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>M&amp;A</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>SPNEWS.com</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2025-11-14-tipa-acquires-sealpap-to-expand-recyclable-and-compostable-packaging-portfolio.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CJ Biomaterials</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CJ Biomaterials</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CJ Biomaterials Wins 2025 Innovation in Bioplastics Award</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CJ Biomaterials was recognized with the 2025 Innovation in Bioplastics Award for its advancements in</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Certifications</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2025-11-14-cj-biomaterials-wins-2025-innovation-in-bioplastics-award.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Blue Circle Olefins</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Blue Circle Olefins</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Blue Circle Olefins and Ducor Petrochemicals Partner for Circular Polypropylene Supply Chain</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Blue Circle Olefins and Ducor Petrochemicals have announced a strategic partnership to establish a f</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ChemAnalyst</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2025-11-17-blue-circle-olefins-and-ducor-petrochemicals-partner-for-circular-polypropylene-supply-chain.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Erg Bio</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Erg Bio</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Erg Bio Closes $6.5 Million Seed Round to Scale Flexible Feedstock Technology for Manufacturing Synthetic Aviation Fuels and Critical Chemicals</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erg Bio has successfully secured $6.5 million in a seed funding round to accelerate the scale-up of </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Erg Bio</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-11-18-erg-bio-closes-65-million-seed-round-to-scale-flexible-feedstock-technology-for-manufacturing-synthetic-aviation-fuels-and-critical-chemicals.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience and Biome Bioplastics</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience and Biome Bioplastics</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience Partners with Biome Bioplastics for R&amp;D</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience and Biome Bioplastics launched a two-year</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-11-18-renaissance-bioscience-partners-with-biome-bioplastics-for-rd.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Northeast Forestry University and Shenyang University of Chemical Technology</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Northeast Forestry University and Shenyang University of Chemical Technology</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>New bamboo bioplastic offers strong alternative to traditional plastics</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scientists in China have developed a high-performance bamboo bioplastic that surpasses conventional </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Biomarket Insights</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-11-20-new-bamboo-bioplastic-offers-strong-alternative-to-traditional-plastics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Carbon Cell</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Carbon Cell</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Carbon Cell makes plastic-free alternative to polystyrene</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>British company Carbon Cell has developed a carbon-negative</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Dezeen</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-11-25-carbon-cell-makes-plastic-free-alternative-to-polystyrene.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EU Commission / Towards Chemical and Materials Consulting</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>EU Commission / Towards Chemical and Materials Consulting</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>EU Issues Regulation 2025/2269 Correcting Labeling of Recycled Plastic Amidst Surging Recycled Plastics Market</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>The EU Commission has issued Regulation 2025/2269 to rectify labeling guidelines for recycled plasti</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Regulatory &amp; Policy</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>GlobeNewswire</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-11-25-eu-issues-regulation-20252269-correcting-labeling-of-recycled-plastic-amidst-surging-recycled-plastics-market.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>European Commission</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>New plan to unlock the bioeconomy's potential</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>The European Commission has adopted a new Bioeconomy Strategy</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Regulatory &amp; Policy</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>European Commission Newsroom</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2025-11-27-new-plan-to-unlock-the-bioeconomys-potential.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Emirates Biotech</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Emirates Biotech</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Emirates Biotech launches PLA biopolymer 'Embio</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Emirates Biotech has launched 'Embio'</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Emirates Biotech</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-11-30-emirates-biotech-launches-pla-biopolymer-embio.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ecopha Biotech and Terra Sol Studio</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ecopha Biotech and Terra Sol Studio</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Ecopha Biotech and Terra Sol Win Energy &amp; Renewables Award at the 2025 Innovation Aus award for Breakthrough PHA Technology</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ecopha Biotech and design partner Terra Sol Studio secured the 2025 InnovationAus Energy &amp; Renewable</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>News Hub</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-12-01-ecopha-biotech-and-terra-sol-win-energy-renewables-award-at-the-2025-innovation-aus-award-for-breakthrough-pha-technology.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rutgers University</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rutgers University</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Scientists Develop New Plastics That Break Down Safely Instead of Polluting</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Rutgers University scientists have engineered novel plastics that naturally degrade under everyday c</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Rutgers University</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2025-12-02-scientists-develop-new-plastics-that-break-down-safely-instead-of-polluting.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>The Pew Charitable Trusts</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The Pew Charitable Trusts</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Breaking the Plastic Wave 2025: Global Report Warns of Doubling Pollution Without Urgent Action</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New landmark report from The Pew Charitable Trusts reveals plastic pollution could more than double </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Regulatory &amp; Policy</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>The Pew Charitable Trusts</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2025-12-03-breaking-the-plastic-wave-2025-global-report-warns-of-doubling-pollution-without-urgent-action.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>European Bioplastics (EUBP)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>European Bioplastics (EUBP)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>EUBP presents the Results of the 2025 Market Data Report</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>European Bioplastics' 2025 Market Data Report projects a doubling of global biobased plastics produc</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Market Analysis</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>European Bioplastics</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-12-03-eubp-presents-the-results-of-the-2025-market-data-report.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ALPLA and NTCP (National Test Centre Circular Plastics)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ALPLA and NTCP (National Test Centre Circular Plastics)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ALPLA and NTCP Pilot Solvent-Based Process for Food-Safe Recycled HDPE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ALPLA and NTCP are piloting a solvent-based process in the Netherlands to produce food-safe recycled</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Plant Announcements</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ALPLA</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2025-12-04-alpla-and-ntcp-pilot-solvent-based-process-for-food-safe-recycled-hdpe.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CARBIOS and Wankai New Materials</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CARBIOS and Wankai New Materials</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CARBIOS and Wankai seal major deal to launch Asia's first large-scale PET biorecycling plant</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CARBIOS and Wankai New Materials have finalized a landmark agreement to establish a joint venture fo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Plant Announcements</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>CARBIOS Newsroom</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2025-12-04-carbios-and-wankai-seal-major-deal-to-launch-asias-first-large-scale-pet-biorecycling-plant.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Power2Polymers</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Power2Polymers</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Innovative Start-Ups Honored at the ISC3 Innovation Challenge 2025 – Power2Polymers from Germany wins top prize</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Power2Polymers</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Informationsdienst Wissenschaft</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2025-12-05-innovative-start-ups-honored-at-the-isc3-innovation-challenge-2025-power2polymers-from-germany-wins-top-prize.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lubrizol</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lubrizol</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Lubrizol Unveils 2025 Innovations</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Lubrizol has launched new readily biodegradable polymers</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Business Wire</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2025-04-08-lubrizol-unveils-2025-innovations.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion Highlights PLA Innovations and Chemical Recycling at Chinese Conference</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion showcased its Luminy® PLA innovations</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Market Analysis</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion Newsroom</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2025-12-09-totalenergies-corbion-highlights-pla-innovations-and-chemical-recycling-at-chinese-conference.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Concordia University</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Concordia University</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Concordia University Expands Sustainable Biomanufacturing Capacity with $5M Investment</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Concordia University has significantly upgraded its Genome Foundry and Bioprocessing facilities with</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Concordia University News</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2025-12-11-concordia-university-expands-sustainable-biomanufacturing-capacity-with-5m-investment.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RIKEN Center for Emergent Matter Science (CEMS)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RIKEN Center for Emergent Matter Science (CEMS)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RIKEN Scientists Develop Saltwater-Safe</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Researchers at RIKEN's Center for Emergent Matter Science (CEMS)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>RIKEN</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2025-12-25-riken-scientists-develop-saltwater-safe.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Notpla</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Notpla produced 15M single-use plastic alternatives</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Notpla produced 15 million single-use plastic alternatives in 2025, advancing seaweed biopolymer applications.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Financial Results</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://phyconomy.substack.com/p/seaweed-in-2025-the-year-in-review</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2025-12-31-notpla-produced-15m-single-use-plastic-alternatives.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Loliware</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Loliware partners with Entec</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Loliware partnered with Entec to develop seaweed biopolymer solutions.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://phyconomy.substack.com/p/seaweed-in-2025-the-year-in-review</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2025-12-31-loliware-partners-with-entec.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sway</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sway partners with Atlantic Packaging</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sway partnered with Atlantic Packaging for biopolymer packaging initiatives.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://phyconomy.substack.com/p/seaweed-in-2025-the-year-in-review</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2025-12-31-sway-partners-with-atlantic-packaging.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Uluu</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Uluu</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Uluu raises $10.5 million in funding</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Uluu raised $10.5 million to expand seaweed biopolymer production and development.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://phyconomy.substack.com/p/seaweed-in-2025-the-year-in-review</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2025-12-31-uluu-raises-105-million-in-funding.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Zerocircle</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Zerocircle raises $2.3 million</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Zerocircle raised $2.3 million for biopolymer technology advancements.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Investment &amp; Funding</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://phyconomy.substack.com/p/seaweed-in-2025-the-year-in-review</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2025-12-31-zerocircle-raises-23-million.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SK Chemicals</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SK Chemicals showcases sustainable solutions at Chinaplas 2025</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SK Chemicals showcased sustainable biopolymer solutions at Chinaplas 2025 event.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/materials/biopolymers</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2026-01-06-sk-chemicals-showcases-sustainable-solutions-at-chinaplas-2025.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CovationBio</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CovationBio unveils bio-based PTMEG alternative</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CovationBio unveiled bio-based alternative to PTMEG at Chinaplas 2025.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/materials/biopolymers</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2026-01-06-covationbio-unveils-bio-based-ptmeg-alternative.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion and Benvic expand low-carbon compounds</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion and Benvic teamed up to expand low-carbon biopolymer compounds for automotive and electronics.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/materials/biopolymers</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2026-01-06-totalenergies-corbion-and-benvic-expand-low-carbon-compounds.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BASF</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BASF debuts world's first biomass-balanced polyethersulfone</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>BASF debuted the world's first biomass-balanced polyethersulfone biopolymer.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/materials/biopolymers</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2026-01-06-basf-debuts-worlds-first-biomass-balanced-polyethersulfone.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Idemitsu Kosan</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Idemitsu Kosan and Mitsubishi Electric collaborate on bioplastics</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Idemitsu Kosan and Mitsubishi Electric collaborate to bring bioplastics into home appliances.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/materials/biopolymers</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2026-01-06-idemitsu-kosan-and-mitsubishi-electric-collaborate-on-bioplastics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FKuR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>FKuR Launches Bioplastic Development in Texas</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>German bioplastic company FKuR is gearing up operations in Texas to develop and sell innovative biocompound products.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Plant Announcement</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.designnews.com/biomaterials/fkur-launches-bioplastic-development-in-texas</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2026-01-06-fkur-launches-bioplastic-development-in-texas.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience Partners with Biome Bioplastics</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience and Biome Bioplastics collaborate on renewable bioplastic building blocks via yeast fermentation for packaging.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/packaging/renaissance-bioscience-partners-with-biome-bioplastics-to-develop-renewable-plastic-alternatives</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2026-01-06-renaissance-bioscience-partners-with-biome-bioplastics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Biome Bioplastics</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Biome Bioplastics</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Biome Bioplastics Partners with Renaissance BioScience</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Biome Bioplastics teams up with Renaissance BioScience to develop renewable bioplastic alternatives for packaging using advanced fermentation.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Partnerships</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.plasticstoday.com/packaging/renaissance-bioscience-partners-with-biome-bioplastics-to-develop-renewable-plastic-alternatives</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2026-01-06-biome-bioplastics-partners-with-renaissance-bioscience.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AIMPLAS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>AIMPLAS Launches 2026 Training Program with Bioplastics Focus</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>AIMPLAS launches extensive 2026 training program including bioplastics, sustainability, and circular economy topics via Plastics Academy.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Product Launch</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.azom.com/news.aspx?newsID=65126</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Perplexity Rev2</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2026-01-06-aimplas-launches-2026-training-program-with-bioplastics-focus.md</t>
         </is>
       </c>
     </row>
